--- a/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
+++ b/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="312">
   <si>
     <t>标签类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -415,10 +415,6 @@
   </si>
   <si>
     <t>首单为新人礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首单为TV直播商品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1354,6 +1350,18 @@
   </si>
   <si>
     <t>用户订购单数大于4单时启用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首单为TV播出商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首单为TV非播出商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首单为BBC商品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1673,15 +1681,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,22 +1726,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,29 +1750,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2072,64 +2080,64 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>280</v>
+      <c r="D2" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2137,135 +2145,135 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
-        <v>263</v>
+      <c r="A11" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>280</v>
+      <c r="D11" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2286,7 @@
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -2291,10 +2299,10 @@
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2306,8 +2314,8 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
@@ -2317,8 +2325,8 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
@@ -2328,8 +2336,8 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
@@ -2339,8 +2347,8 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
@@ -2350,8 +2358,8 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="18" t="s">
         <v>25</v>
       </c>
@@ -2361,8 +2369,8 @@
       <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -2372,98 +2380,98 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>294</v>
+      <c r="D22" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
@@ -2473,8 +2481,8 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="18" t="s">
         <v>36</v>
       </c>
@@ -2484,8 +2492,8 @@
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
@@ -2495,8 +2503,8 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2506,8 +2514,8 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="18" t="s">
         <v>39</v>
       </c>
@@ -2517,94 +2525,94 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>294</v>
+      <c r="D35" s="42" t="s">
+        <v>293</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>294</v>
+        <v>206</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>293</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -2616,10 +2624,10 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
@@ -2627,8 +2635,8 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="24" t="s">
         <v>49</v>
       </c>
@@ -2638,8 +2646,8 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="18" t="s">
@@ -2651,8 +2659,8 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="18" t="s">
         <v>52</v>
       </c>
@@ -2662,8 +2670,8 @@
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="24" t="s">
         <v>53</v>
       </c>
@@ -2673,8 +2681,8 @@
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="24" t="s">
         <v>54</v>
       </c>
@@ -2684,49 +2692,49 @@
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="33" t="s">
-        <v>265</v>
+      <c r="A48" s="34"/>
+      <c r="B48" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>307</v>
+        <v>273</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" s="35"/>
+        <v>274</v>
+      </c>
+      <c r="D49" s="40"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="34"/>
+        <v>275</v>
+      </c>
+      <c r="D50" s="41"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="22"/>
@@ -2813,6 +2821,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D22:D29"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
@@ -2824,12 +2838,6 @@
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D22:D29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2867,159 +2875,159 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="35"/>
+        <v>298</v>
+      </c>
+      <c r="E3" s="40"/>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="35"/>
+        <v>298</v>
+      </c>
+      <c r="E4" s="40"/>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="35"/>
+        <v>298</v>
+      </c>
+      <c r="E6" s="40"/>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="34"/>
+        <v>298</v>
+      </c>
+      <c r="E7" s="41"/>
       <c r="F7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3028,230 +3036,230 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55" t="s">
-        <v>266</v>
+      <c r="A11" s="56"/>
+      <c r="B11" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>282</v>
+        <v>299</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E12" s="40"/>
       <c r="F12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E13" s="40"/>
       <c r="F13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E14" s="40"/>
       <c r="F14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E15" s="40"/>
       <c r="F15" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="E17" s="40"/>
       <c r="F17" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="34"/>
+        <v>299</v>
+      </c>
+      <c r="E18" s="41"/>
       <c r="F18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55" t="s">
-        <v>267</v>
+      <c r="A19" s="56"/>
+      <c r="B19" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
@@ -3259,57 +3267,57 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -3318,223 +3326,223 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>282</v>
+        <v>300</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="35"/>
+        <v>300</v>
+      </c>
+      <c r="E25" s="40"/>
       <c r="F25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" s="35"/>
+        <v>300</v>
+      </c>
+      <c r="E26" s="40"/>
       <c r="F26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="35"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="40"/>
       <c r="F27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="34"/>
+        <v>300</v>
+      </c>
+      <c r="E28" s="41"/>
       <c r="F28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55" t="s">
-        <v>256</v>
+      <c r="A29" s="56"/>
+      <c r="B29" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>289</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="35"/>
+        <v>301</v>
+      </c>
+      <c r="E30" s="40"/>
       <c r="F30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="35"/>
+        <v>301</v>
+      </c>
+      <c r="E31" s="40"/>
       <c r="F31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="34"/>
+        <v>301</v>
+      </c>
+      <c r="E32" s="41"/>
       <c r="F32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="48" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>289</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3542,31 +3550,31 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E34" s="34"/>
+        <v>301</v>
+      </c>
+      <c r="E34" s="41"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D35" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>291</v>
+        <v>301</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3574,42 +3582,42 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" s="35"/>
+        <v>301</v>
+      </c>
+      <c r="E36" s="40"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E37" s="34"/>
+        <v>301</v>
+      </c>
+      <c r="E37" s="41"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
-      <c r="B38" s="50" t="s">
-        <v>268</v>
+      <c r="A38" s="56"/>
+      <c r="B38" s="51" t="s">
+        <v>267</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -3619,10 +3627,10 @@
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -3632,8 +3640,8 @@
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3645,8 +3653,8 @@
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="24" t="s">
         <v>93</v>
       </c>
@@ -3658,20 +3666,20 @@
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>302</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3679,48 +3687,48 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="35"/>
+        <v>301</v>
+      </c>
+      <c r="E43" s="40"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="49"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" s="34"/>
+        <v>301</v>
+      </c>
+      <c r="E44" s="41"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3728,18 +3736,18 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3747,18 +3755,18 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3766,12 +3774,12 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -3781,12 +3789,12 @@
       <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -3796,18 +3804,18 @@
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="49"/>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="39" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>284</v>
+      <c r="D50" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3815,847 +3823,847 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="49"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="49"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+        <v>309</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+        <v>310</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="33" t="s">
-        <v>106</v>
-      </c>
+      <c r="A54" s="55"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>293</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+        <v>104</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="49"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="C56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>292</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="49"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="55"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="55"/>
+      <c r="B61" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="49"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="49"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="D61" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>291</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="49"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="49"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="49"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>120</v>
-      </c>
+      <c r="A66" s="55"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="C68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+        <v>122</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+        <v>125</v>
+      </c>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
+        <v>126</v>
+      </c>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
-      <c r="B75" s="33" t="s">
-        <v>130</v>
-      </c>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
+        <v>131</v>
+      </c>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
-      <c r="B79" s="33" t="s">
-        <v>135</v>
-      </c>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
+        <v>133</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="39" t="s">
+        <v>134</v>
+      </c>
       <c r="C81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>304</v>
+      </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
+        <v>131</v>
+      </c>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
+        <v>132</v>
+      </c>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
-      <c r="B84" s="33" t="s">
-        <v>138</v>
-      </c>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>306</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="35"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="C86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+        <v>130</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="35"/>
-      <c r="B87" s="33" t="s">
-        <v>139</v>
-      </c>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D87" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>290</v>
-      </c>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="35"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="39" t="s">
+        <v>138</v>
+      </c>
       <c r="C89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
+        <v>130</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="35"/>
-      <c r="B90" s="33" t="s">
-        <v>141</v>
-      </c>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="35"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="39" t="s">
+        <v>140</v>
+      </c>
       <c r="C92" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
+        <v>141</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="35"/>
-      <c r="B93" s="33" t="s">
-        <v>145</v>
-      </c>
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="C95" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="35"/>
-      <c r="B97" s="34"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+        <v>147</v>
+      </c>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="35"/>
-      <c r="B98" s="33" t="s">
-        <v>151</v>
-      </c>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>305</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="35"/>
-      <c r="B99" s="35"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="39" t="s">
+        <v>150</v>
+      </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>304</v>
+      </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="35"/>
-      <c r="B102" s="34"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+        <v>151</v>
+      </c>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="35"/>
-      <c r="B103" s="33" t="s">
-        <v>154</v>
-      </c>
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="35"/>
-      <c r="B107" s="34"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+        <v>154</v>
+      </c>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="35"/>
-      <c r="B108" s="50" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="40"/>
+      <c r="B110" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-    </row>
-    <row r="109" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="35"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-    </row>
-    <row r="110" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="35"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
@@ -4665,10 +4673,10 @@
       <c r="I110" s="22"/>
     </row>
     <row r="111" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="35"/>
-      <c r="B111" s="51"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
@@ -4678,10 +4686,10 @@
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="34"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="52"/>
       <c r="C112" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
@@ -4690,29 +4698,72 @@
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
     </row>
+    <row r="113" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="40"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="41"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A66:A112"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="A42:A65"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="D68:D76"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A42:A67"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B50:B55"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="B2:B7"/>
@@ -4720,37 +4771,20 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D59:D65"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E59:E65"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A68:A114"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4781,34 +4815,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4816,13 +4850,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4831,10 +4865,10 @@
       <c r="A4" s="61"/>
       <c r="B4" s="59"/>
       <c r="C4" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4843,10 +4877,10 @@
       <c r="A5" s="61"/>
       <c r="B5" s="59"/>
       <c r="C5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4855,10 +4889,10 @@
       <c r="A6" s="61"/>
       <c r="B6" s="59"/>
       <c r="C6" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4867,10 +4901,10 @@
       <c r="A7" s="61"/>
       <c r="B7" s="60"/>
       <c r="C7" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4878,13 +4912,13 @@
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="61"/>
       <c r="B8" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4893,10 +4927,10 @@
       <c r="A9" s="61"/>
       <c r="B9" s="59"/>
       <c r="C9" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4905,10 +4939,10 @@
       <c r="A10" s="61"/>
       <c r="B10" s="59"/>
       <c r="C10" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4917,10 +4951,10 @@
       <c r="A11" s="61"/>
       <c r="B11" s="59"/>
       <c r="C11" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4929,10 +4963,10 @@
       <c r="A12" s="61"/>
       <c r="B12" s="59"/>
       <c r="C12" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4941,10 +4975,10 @@
       <c r="A13" s="61"/>
       <c r="B13" s="59"/>
       <c r="C13" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4952,13 +4986,13 @@
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="61"/>
       <c r="B14" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4967,10 +5001,10 @@
       <c r="A15" s="61"/>
       <c r="B15" s="59"/>
       <c r="C15" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4982,7 +5016,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4990,13 +5024,13 @@
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="61"/>
       <c r="B17" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5005,10 +5039,10 @@
       <c r="A18" s="61"/>
       <c r="B18" s="59"/>
       <c r="C18" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5017,10 +5051,10 @@
       <c r="A19" s="61"/>
       <c r="B19" s="59"/>
       <c r="C19" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -5029,10 +5063,10 @@
       <c r="A20" s="61"/>
       <c r="B20" s="59"/>
       <c r="C20" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5041,10 +5075,10 @@
       <c r="A21" s="61"/>
       <c r="B21" s="59"/>
       <c r="C21" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5053,10 +5087,10 @@
       <c r="A22" s="61"/>
       <c r="B22" s="59"/>
       <c r="C22" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5065,10 +5099,10 @@
       <c r="A23" s="61"/>
       <c r="B23" s="59"/>
       <c r="C23" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -5076,13 +5110,13 @@
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="61"/>
       <c r="B24" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5091,10 +5125,10 @@
       <c r="A25" s="61"/>
       <c r="B25" s="59"/>
       <c r="C25" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5103,10 +5137,10 @@
       <c r="A26" s="61"/>
       <c r="B26" s="59"/>
       <c r="C26" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5114,13 +5148,13 @@
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="61"/>
       <c r="B27" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5129,10 +5163,10 @@
       <c r="A28" s="61"/>
       <c r="B28" s="59"/>
       <c r="C28" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5141,10 +5175,10 @@
       <c r="A29" s="61"/>
       <c r="B29" s="59"/>
       <c r="C29" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5152,13 +5186,13 @@
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
       <c r="B30" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5167,10 +5201,10 @@
       <c r="A31" s="61"/>
       <c r="B31" s="59"/>
       <c r="C31" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -5179,10 +5213,10 @@
       <c r="A32" s="61"/>
       <c r="B32" s="59"/>
       <c r="C32" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5190,13 +5224,13 @@
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
       <c r="B33" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -5205,10 +5239,10 @@
       <c r="A34" s="61"/>
       <c r="B34" s="59"/>
       <c r="C34" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -5217,10 +5251,10 @@
       <c r="A35" s="61"/>
       <c r="B35" s="59"/>
       <c r="C35" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5228,13 +5262,13 @@
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="61"/>
       <c r="B36" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -5243,10 +5277,10 @@
       <c r="A37" s="61"/>
       <c r="B37" s="59"/>
       <c r="C37" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5255,10 +5289,10 @@
       <c r="A38" s="61"/>
       <c r="B38" s="59"/>
       <c r="C38" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -5266,13 +5300,13 @@
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="61"/>
       <c r="B39" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -5281,10 +5315,10 @@
       <c r="A40" s="61"/>
       <c r="B40" s="63"/>
       <c r="C40" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -5293,10 +5327,10 @@
       <c r="A41" s="61"/>
       <c r="B41" s="64"/>
       <c r="C41" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -5304,13 +5338,13 @@
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="61"/>
       <c r="B42" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>254</v>
-      </c>
       <c r="D42" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -5319,10 +5353,10 @@
       <c r="A43" s="61"/>
       <c r="B43" s="59"/>
       <c r="C43" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -5330,13 +5364,13 @@
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="61"/>
       <c r="B44" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>

--- a/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
+++ b/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="313">
   <si>
     <t>标签类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -943,10 +943,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户账号等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户两次订购日期间平均时长</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1362,6 +1358,14 @@
   </si>
   <si>
     <t>首单为BBC商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1,【0...30】,30...60,60...90，&gt;90,最近一个月的消费记录不计算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1597,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1681,6 +1685,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,31 +1730,28 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,30 +1760,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,6 +1780,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2060,7 +2067,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D50"/>
+      <selection activeCell="B15" sqref="B15:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2083,7 +2090,7 @@
         <v>162</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>173</v>
@@ -2096,17 +2103,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>279</v>
+      <c r="D2" s="33" t="s">
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>197</v>
@@ -2119,12 +2126,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="2" t="s">
         <v>197</v>
       </c>
@@ -2136,8 +2143,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2153,8 +2160,8 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2168,8 +2175,8 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -2183,8 +2190,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -2198,8 +2205,8 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2213,8 +2220,8 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
@@ -2228,8 +2235,8 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
@@ -2243,37 +2250,37 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
-        <v>262</v>
+      <c r="A11" s="43" t="s">
+        <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>279</v>
+      <c r="D11" s="33" t="s">
+        <v>278</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -2299,10 +2306,10 @@
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2314,8 +2321,8 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
@@ -2325,8 +2332,8 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
@@ -2336,8 +2343,8 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
@@ -2347,8 +2354,8 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
@@ -2358,8 +2365,8 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="18" t="s">
         <v>25</v>
       </c>
@@ -2369,8 +2376,8 @@
       <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -2380,98 +2387,98 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>293</v>
+      <c r="D22" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
@@ -2481,8 +2488,8 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="18" t="s">
         <v>36</v>
       </c>
@@ -2492,8 +2499,8 @@
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
@@ -2503,8 +2510,8 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2514,8 +2521,8 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="18" t="s">
         <v>39</v>
       </c>
@@ -2525,94 +2532,94 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>293</v>
+      <c r="D35" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>293</v>
+      <c r="D38" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="34"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="34"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -2624,8 +2631,8 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="34"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="24" t="s">
         <v>199</v>
       </c>
@@ -2635,8 +2642,8 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="34"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="24" t="s">
         <v>49</v>
       </c>
@@ -2646,8 +2653,8 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="18" t="s">
@@ -2659,8 +2666,8 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="18" t="s">
         <v>52</v>
       </c>
@@ -2670,8 +2677,8 @@
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="24" t="s">
         <v>53</v>
       </c>
@@ -2681,8 +2688,8 @@
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="24" t="s">
         <v>54</v>
       </c>
@@ -2692,49 +2699,49 @@
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
-      <c r="B48" s="39" t="s">
-        <v>264</v>
+      <c r="A48" s="43"/>
+      <c r="B48" s="33" t="s">
+        <v>263</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>306</v>
+        <v>272</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>305</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D49" s="40"/>
+        <v>273</v>
+      </c>
+      <c r="D49" s="35"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="34"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" s="41"/>
+        <v>274</v>
+      </c>
+      <c r="D50" s="34"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="27" t="s">
         <v>207</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="22"/>
@@ -2821,12 +2828,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D22:D29"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
@@ -2838,6 +2839,12 @@
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D22:D29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2875,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>183</v>
@@ -2894,26 +2901,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>307</v>
+      <c r="B2" s="45" t="s">
+        <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>283</v>
+        <v>297</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>184</v>
@@ -2921,20 +2928,20 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="40"/>
+        <v>297</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>185</v>
@@ -2942,20 +2949,20 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="40"/>
+        <v>297</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>186</v>
@@ -2963,20 +2970,20 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="40"/>
+        <v>297</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>187</v>
@@ -2984,20 +2991,20 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="40"/>
+        <v>297</v>
+      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>188</v>
@@ -3005,20 +3012,20 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>297</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>189</v>
@@ -3026,8 +3033,8 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3039,7 +3046,7 @@
         <v>182</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>190</v>
@@ -3047,8 +3054,8 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="19" t="s">
         <v>68</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>182</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>191</v>
@@ -3066,8 +3073,8 @@
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>182</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>192</v>
@@ -3085,181 +3092,181 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="50" t="s">
-        <v>265</v>
+      <c r="A11" s="53"/>
+      <c r="B11" s="55" t="s">
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>281</v>
+        <v>298</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E12" s="35"/>
       <c r="F12" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E13" s="35"/>
       <c r="F13" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E14" s="35"/>
       <c r="F14" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E15" s="35"/>
       <c r="F15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E16" s="35"/>
       <c r="F16" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="40"/>
+        <v>298</v>
+      </c>
+      <c r="E17" s="35"/>
       <c r="F17" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="41"/>
+        <v>298</v>
+      </c>
+      <c r="E18" s="34"/>
       <c r="F18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="50" t="s">
-        <v>266</v>
+      <c r="A19" s="53"/>
+      <c r="B19" s="55" t="s">
+        <v>265</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
@@ -3270,16 +3277,16 @@
         <v>193</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
@@ -3289,16 +3296,16 @@
         <v>193</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3308,16 +3315,16 @@
         <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -3326,223 +3333,223 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>281</v>
+        <v>299</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="40"/>
+        <v>299</v>
+      </c>
+      <c r="E25" s="35"/>
       <c r="F25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="40"/>
+        <v>299</v>
+      </c>
+      <c r="E26" s="35"/>
       <c r="F26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="40"/>
+        <v>299</v>
+      </c>
+      <c r="E27" s="35"/>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="41"/>
+        <v>299</v>
+      </c>
+      <c r="E28" s="34"/>
       <c r="F28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="50" t="s">
-        <v>255</v>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55" t="s">
+        <v>254</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="E30" s="35"/>
       <c r="F30" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E31" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="E31" s="35"/>
       <c r="F31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="41"/>
+        <v>300</v>
+      </c>
+      <c r="E32" s="34"/>
       <c r="F32" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="56" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3550,31 +3557,31 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="41"/>
+        <v>300</v>
+      </c>
+      <c r="E34" s="34"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="55" t="s">
         <v>202</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>290</v>
+        <v>300</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3582,39 +3589,39 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E36" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="E36" s="35"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" s="41"/>
+        <v>300</v>
+      </c>
+      <c r="E37" s="34"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="51" t="s">
-        <v>267</v>
+      <c r="A38" s="53"/>
+      <c r="B38" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>201</v>
@@ -3627,8 +3634,8 @@
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="24" t="s">
         <v>200</v>
       </c>
@@ -3640,8 +3647,8 @@
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3653,8 +3660,8 @@
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="24" t="s">
         <v>93</v>
       </c>
@@ -3666,20 +3673,20 @@
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="33" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>302</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3687,48 +3694,48 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="E43" s="35"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="55"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" s="41"/>
+        <v>300</v>
+      </c>
+      <c r="E44" s="34"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3736,45 +3743,47 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A47" s="49"/>
       <c r="B47" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>312</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="19" t="s">
         <v>99</v>
       </c>
@@ -3789,7 +3798,7 @@
       <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="19" t="s">
         <v>100</v>
       </c>
@@ -3804,18 +3813,18 @@
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>283</v>
+      <c r="D50" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3823,83 +3832,83 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+        <v>308</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+        <v>309</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+        <v>310</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="55"/>
-      <c r="B56" s="39" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>292</v>
+      <c r="D56" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>291</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3907,70 +3916,70 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="55"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="55"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="55"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="55"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="49"/>
+      <c r="B61" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>291</v>
+      <c r="D61" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>290</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -3978,98 +3987,98 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="55"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="55"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="55"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>289</v>
+      <c r="D68" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -4077,122 +4086,122 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="40"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="40"/>
-      <c r="B77" s="39" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>289</v>
+      <c r="D77" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -4200,57 +4209,57 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="40"/>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>304</v>
+      <c r="D81" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -4258,70 +4267,70 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-      <c r="B86" s="39" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>305</v>
+      <c r="D86" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -4329,44 +4338,44 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
-      <c r="B88" s="41"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
-      <c r="B89" s="39" t="s">
+      <c r="A89" s="35"/>
+      <c r="B89" s="33" t="s">
         <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E89" s="39" t="s">
-        <v>289</v>
+      <c r="D89" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -4374,44 +4383,44 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="40"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="40"/>
-      <c r="B92" s="39" t="s">
+      <c r="A92" s="35"/>
+      <c r="B92" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D92" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" s="39" t="s">
-        <v>289</v>
+      <c r="D92" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -4419,44 +4428,44 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="40"/>
-      <c r="B94" s="41"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="40"/>
-      <c r="B95" s="39" t="s">
+      <c r="A95" s="35"/>
+      <c r="B95" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>289</v>
+      <c r="D95" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -4464,70 +4473,70 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="40"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="40"/>
-      <c r="B100" s="39" t="s">
+      <c r="A100" s="35"/>
+      <c r="B100" s="33" t="s">
         <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D100" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>304</v>
+      <c r="D100" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -4535,70 +4544,70 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="40"/>
-      <c r="B101" s="40"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="40"/>
-      <c r="B105" s="39" t="s">
+      <c r="A105" s="35"/>
+      <c r="B105" s="33" t="s">
         <v>153</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D105" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>289</v>
+      <c r="D105" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -4606,60 +4615,60 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="40"/>
-      <c r="B109" s="41"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="40"/>
-      <c r="B110" s="51" t="s">
+      <c r="A110" s="35"/>
+      <c r="B110" s="50" t="s">
         <v>156</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -4673,8 +4682,8 @@
       <c r="I110" s="22"/>
     </row>
     <row r="111" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="40"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="24" t="s">
         <v>158</v>
       </c>
@@ -4686,8 +4695,8 @@
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="40"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="24" t="s">
         <v>159</v>
       </c>
@@ -4699,8 +4708,8 @@
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="40"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="24" t="s">
         <v>160</v>
       </c>
@@ -4712,8 +4721,8 @@
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="41"/>
-      <c r="B114" s="53"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="24" t="s">
         <v>161</v>
       </c>
@@ -4726,6 +4735,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A68:A114"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A42:A67"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E50:E55"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="E95:E99"/>
     <mergeCell ref="E100:E104"/>
@@ -4742,49 +4794,6 @@
     <mergeCell ref="E68:E76"/>
     <mergeCell ref="E77:E80"/>
     <mergeCell ref="E81:E85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A42:A67"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A68:A114"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,7 +4805,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4815,34 +4824,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4853,10 +4862,10 @@
         <v>163</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4865,10 +4874,10 @@
       <c r="A4" s="61"/>
       <c r="B4" s="59"/>
       <c r="C4" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4877,10 +4886,10 @@
       <c r="A5" s="61"/>
       <c r="B5" s="59"/>
       <c r="C5" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4889,10 +4898,10 @@
       <c r="A6" s="61"/>
       <c r="B6" s="59"/>
       <c r="C6" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4901,10 +4910,10 @@
       <c r="A7" s="61"/>
       <c r="B7" s="60"/>
       <c r="C7" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4915,10 +4924,10 @@
         <v>164</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4927,10 +4936,10 @@
       <c r="A9" s="61"/>
       <c r="B9" s="59"/>
       <c r="C9" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4939,10 +4948,10 @@
       <c r="A10" s="61"/>
       <c r="B10" s="59"/>
       <c r="C10" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4951,10 +4960,10 @@
       <c r="A11" s="61"/>
       <c r="B11" s="59"/>
       <c r="C11" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4963,10 +4972,10 @@
       <c r="A12" s="61"/>
       <c r="B12" s="59"/>
       <c r="C12" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4975,10 +4984,10 @@
       <c r="A13" s="61"/>
       <c r="B13" s="59"/>
       <c r="C13" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4989,10 +4998,10 @@
         <v>165</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5001,10 +5010,10 @@
       <c r="A15" s="61"/>
       <c r="B15" s="59"/>
       <c r="C15" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5016,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -5024,13 +5033,13 @@
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="61"/>
       <c r="B17" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5039,10 +5048,10 @@
       <c r="A18" s="61"/>
       <c r="B18" s="59"/>
       <c r="C18" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5051,10 +5060,10 @@
       <c r="A19" s="61"/>
       <c r="B19" s="59"/>
       <c r="C19" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -5063,10 +5072,10 @@
       <c r="A20" s="61"/>
       <c r="B20" s="59"/>
       <c r="C20" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5075,10 +5084,10 @@
       <c r="A21" s="61"/>
       <c r="B21" s="59"/>
       <c r="C21" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5087,10 +5096,10 @@
       <c r="A22" s="61"/>
       <c r="B22" s="59"/>
       <c r="C22" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5099,10 +5108,10 @@
       <c r="A23" s="61"/>
       <c r="B23" s="59"/>
       <c r="C23" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -5113,10 +5122,10 @@
         <v>166</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5125,10 +5134,10 @@
       <c r="A25" s="61"/>
       <c r="B25" s="59"/>
       <c r="C25" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5137,10 +5146,10 @@
       <c r="A26" s="61"/>
       <c r="B26" s="59"/>
       <c r="C26" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5151,10 +5160,10 @@
         <v>167</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5163,10 +5172,10 @@
       <c r="A28" s="61"/>
       <c r="B28" s="59"/>
       <c r="C28" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5175,10 +5184,10 @@
       <c r="A29" s="61"/>
       <c r="B29" s="59"/>
       <c r="C29" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5189,10 +5198,10 @@
         <v>168</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5201,10 +5210,10 @@
       <c r="A31" s="61"/>
       <c r="B31" s="59"/>
       <c r="C31" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -5213,10 +5222,10 @@
       <c r="A32" s="61"/>
       <c r="B32" s="59"/>
       <c r="C32" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5227,10 +5236,10 @@
         <v>169</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -5239,10 +5248,10 @@
       <c r="A34" s="61"/>
       <c r="B34" s="59"/>
       <c r="C34" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -5251,10 +5260,10 @@
       <c r="A35" s="61"/>
       <c r="B35" s="59"/>
       <c r="C35" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5265,10 +5274,10 @@
         <v>170</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -5277,10 +5286,10 @@
       <c r="A37" s="61"/>
       <c r="B37" s="59"/>
       <c r="C37" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5289,10 +5298,10 @@
       <c r="A38" s="61"/>
       <c r="B38" s="59"/>
       <c r="C38" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -5303,10 +5312,10 @@
         <v>171</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -5315,10 +5324,10 @@
       <c r="A40" s="61"/>
       <c r="B40" s="63"/>
       <c r="C40" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -5327,10 +5336,10 @@
       <c r="A41" s="61"/>
       <c r="B41" s="64"/>
       <c r="C41" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -5338,13 +5347,13 @@
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="61"/>
       <c r="B42" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>253</v>
-      </c>
       <c r="D42" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -5353,10 +5362,10 @@
       <c r="A43" s="61"/>
       <c r="B43" s="59"/>
       <c r="C43" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -5367,10 +5376,10 @@
         <v>172</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>

--- a/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
+++ b/Project/2017-05-15_用户标签/用户标签_任务分配.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="314">
   <si>
     <t>标签类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1366,6 +1366,10 @@
   </si>
   <si>
     <t>*1,【0...30】,30...60,60...90，&gt;90,最近一个月的消费记录不计算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%的支付占了60%的金额</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1685,15 +1689,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,22 +1737,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1736,30 +1761,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1780,9 +1787,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2103,16 +2107,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="40" t="s">
         <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2126,12 +2130,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="2" t="s">
         <v>197</v>
       </c>
@@ -2143,8 +2147,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2160,8 +2164,8 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2175,8 +2179,8 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -2190,8 +2194,8 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -2205,8 +2209,8 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2220,8 +2224,8 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
@@ -2235,8 +2239,8 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
@@ -2250,7 +2254,7 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2259,7 +2263,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="40" t="s">
         <v>278</v>
       </c>
       <c r="E11" s="8"/>
@@ -2267,20 +2271,20 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2297,7 @@
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
@@ -2306,10 +2310,10 @@
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2321,8 +2325,8 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
@@ -2332,8 +2336,8 @@
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
@@ -2343,8 +2347,8 @@
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
@@ -2354,8 +2358,8 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
@@ -2365,8 +2369,8 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="18" t="s">
         <v>25</v>
       </c>
@@ -2376,8 +2380,8 @@
       <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -2387,12 +2391,12 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="46" t="s">
         <v>292</v>
       </c>
       <c r="E22" s="8"/>
@@ -2400,85 +2404,85 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
@@ -2488,8 +2492,8 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="18" t="s">
         <v>36</v>
       </c>
@@ -2499,8 +2503,8 @@
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
@@ -2510,8 +2514,8 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="18" t="s">
         <v>38</v>
       </c>
@@ -2521,8 +2525,8 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="18" t="s">
         <v>39</v>
       </c>
@@ -2532,14 +2536,14 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="43" t="s">
         <v>292</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2549,12 +2553,12 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="8" t="s">
         <v>262</v>
       </c>
@@ -2562,12 +2566,12 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="8" t="s">
         <v>262</v>
       </c>
@@ -2575,14 +2579,14 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="43" t="s">
         <v>292</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -2592,12 +2596,12 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="8" t="s">
         <v>262</v>
       </c>
@@ -2605,12 +2609,12 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="8" t="s">
         <v>262</v>
       </c>
@@ -2618,8 +2622,8 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -2631,8 +2635,8 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="24" t="s">
         <v>199</v>
       </c>
@@ -2642,8 +2646,8 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="24" t="s">
         <v>49</v>
       </c>
@@ -2653,8 +2657,8 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="18" t="s">
@@ -2666,8 +2670,8 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="18" t="s">
         <v>52</v>
       </c>
@@ -2677,8 +2681,8 @@
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="24" t="s">
         <v>53</v>
       </c>
@@ -2688,8 +2692,8 @@
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="24" t="s">
         <v>54</v>
       </c>
@@ -2699,14 +2703,14 @@
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="33" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="40" t="s">
         <v>263</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="40" t="s">
         <v>305</v>
       </c>
       <c r="E48" s="8"/>
@@ -2714,29 +2718,29 @@
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="35"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="27" t="s">
         <v>207</v>
       </c>
@@ -2828,6 +2832,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D22:D29"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B10"/>
@@ -2839,12 +2849,6 @@
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D22:D29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2855,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2901,10 +2905,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2913,7 +2917,7 @@
       <c r="D2" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="40" t="s">
         <v>282</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2928,15 +2932,15 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="2" t="s">
         <v>182</v>
       </c>
@@ -2949,15 +2953,15 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="2" t="s">
         <v>182</v>
       </c>
@@ -2970,15 +2974,15 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2991,15 +2995,15 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="2" t="s">
         <v>182</v>
       </c>
@@ -3012,15 +3016,15 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="2" t="s">
         <v>182</v>
       </c>
@@ -3033,8 +3037,8 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3054,8 +3058,8 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="19" t="s">
         <v>68</v>
       </c>
@@ -3073,8 +3077,8 @@
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
@@ -3092,8 +3096,8 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="51" t="s">
         <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3102,7 +3106,7 @@
       <c r="D11" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="40" t="s">
         <v>280</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -3117,15 +3121,15 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="2" t="s">
         <v>275</v>
       </c>
@@ -3138,15 +3142,15 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="2" t="s">
         <v>275</v>
       </c>
@@ -3159,15 +3163,15 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="2" t="s">
         <v>275</v>
       </c>
@@ -3180,15 +3184,15 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="2" t="s">
         <v>275</v>
       </c>
@@ -3201,15 +3205,15 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="2" t="s">
         <v>275</v>
       </c>
@@ -3222,15 +3226,15 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="2" t="s">
         <v>275</v>
       </c>
@@ -3243,15 +3247,15 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="2" t="s">
         <v>275</v>
       </c>
@@ -3264,8 +3268,8 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="51" t="s">
         <v>265</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3285,8 +3289,8 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
@@ -3304,8 +3308,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3327,8 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -3342,8 +3346,8 @@
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="19" t="s">
         <v>82</v>
       </c>
@@ -3359,8 +3363,8 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3369,7 +3373,7 @@
       <c r="D24" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="40" t="s">
         <v>280</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3382,15 +3386,15 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="2" t="s">
         <v>214</v>
       </c>
@@ -3401,15 +3405,15 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="2" t="s">
         <v>214</v>
       </c>
@@ -3420,15 +3424,15 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="2" t="s">
         <v>214</v>
       </c>
@@ -3439,15 +3443,15 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="2" t="s">
         <v>214</v>
       </c>
@@ -3458,8 +3462,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="51" t="s">
         <v>254</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3468,7 +3472,7 @@
       <c r="D29" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3481,15 +3485,15 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="2" t="s">
         <v>213</v>
       </c>
@@ -3500,15 +3504,15 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="2" t="s">
         <v>213</v>
       </c>
@@ -3519,15 +3523,15 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="2" t="s">
         <v>213</v>
       </c>
@@ -3538,17 +3542,17 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="49" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F33" s="2"/>
@@ -3557,21 +3561,21 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="51" t="s">
         <v>202</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3580,7 +3584,7 @@
       <c r="D35" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="40" t="s">
         <v>289</v>
       </c>
       <c r="F35" s="2"/>
@@ -3589,38 +3593,38 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="35"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E37" s="34"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="52" t="s">
         <v>266</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -3634,8 +3638,8 @@
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="24" t="s">
         <v>200</v>
       </c>
@@ -3647,8 +3651,8 @@
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3660,8 +3664,8 @@
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="24" t="s">
         <v>93</v>
       </c>
@@ -3673,10 +3677,10 @@
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3685,7 +3689,7 @@
       <c r="D42" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="40" t="s">
         <v>301</v>
       </c>
       <c r="F42" s="2"/>
@@ -3694,37 +3698,37 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E43" s="35"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="49"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E44" s="34"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="15" t="s">
         <v>260</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="10" t="s">
         <v>208</v>
       </c>
@@ -3762,7 +3766,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="10" t="s">
         <v>268</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="E47" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="33" t="s">
         <v>312</v>
       </c>
       <c r="G47" s="2"/>
@@ -3783,7 +3787,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="19" t="s">
         <v>99</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="19" t="s">
         <v>100</v>
       </c>
@@ -3813,17 +3817,17 @@
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="49"/>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="56"/>
+      <c r="B50" s="40" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="40" t="s">
         <v>282</v>
       </c>
       <c r="F50" s="2"/>
@@ -3832,82 +3836,82 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="49"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="49"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="49"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="40" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="40" t="s">
         <v>291</v>
       </c>
       <c r="F56" s="2"/>
@@ -3916,69 +3920,69 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="49"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="49"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="49"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="40" t="s">
         <v>290</v>
       </c>
       <c r="F61" s="8"/>
@@ -3987,97 +3991,99 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="49"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="49"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="49"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="35"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="49"/>
-      <c r="B66" s="35"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="49"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="8"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="40" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F68" s="8"/>
@@ -4086,121 +4092,121 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
-      <c r="B77" s="33" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="40" t="s">
         <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F77" s="8"/>
@@ -4209,56 +4215,56 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
-      <c r="B81" s="33" t="s">
+      <c r="A81" s="41"/>
+      <c r="B81" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="40" t="s">
         <v>303</v>
       </c>
       <c r="F81" s="8"/>
@@ -4267,69 +4273,69 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="35"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="35"/>
-      <c r="B86" s="33" t="s">
+      <c r="A86" s="41"/>
+      <c r="B86" s="40" t="s">
         <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="40" t="s">
         <v>304</v>
       </c>
       <c r="F86" s="8"/>
@@ -4338,43 +4344,43 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="35"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="35"/>
-      <c r="B89" s="33" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="40" t="s">
         <v>138</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F89" s="8"/>
@@ -4383,43 +4389,43 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="35"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="35"/>
-      <c r="B92" s="33" t="s">
+      <c r="A92" s="41"/>
+      <c r="B92" s="40" t="s">
         <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F92" s="8"/>
@@ -4428,43 +4434,43 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="35"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="35"/>
-      <c r="B95" s="33" t="s">
+      <c r="A95" s="41"/>
+      <c r="B95" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F95" s="8"/>
@@ -4473,69 +4479,69 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="35"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="35"/>
-      <c r="B98" s="35"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="35"/>
-      <c r="B99" s="34"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="35"/>
-      <c r="B100" s="33" t="s">
+      <c r="A100" s="41"/>
+      <c r="B100" s="40" t="s">
         <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="40" t="s">
         <v>303</v>
       </c>
       <c r="F100" s="8"/>
@@ -4544,69 +4550,69 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="35"/>
-      <c r="B104" s="34"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="35"/>
-      <c r="B105" s="33" t="s">
+      <c r="A105" s="41"/>
+      <c r="B105" s="40" t="s">
         <v>153</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E105" s="33" t="s">
+      <c r="E105" s="40" t="s">
         <v>288</v>
       </c>
       <c r="F105" s="8"/>
@@ -4615,60 +4621,60 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
       <c r="C106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="35"/>
-      <c r="B108" s="35"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="35"/>
-      <c r="B109" s="34"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="35"/>
-      <c r="B110" s="50" t="s">
+      <c r="A110" s="41"/>
+      <c r="B110" s="52" t="s">
         <v>156</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -4682,8 +4688,8 @@
       <c r="I110" s="22"/>
     </row>
     <row r="111" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="35"/>
-      <c r="B111" s="51"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="24" t="s">
         <v>158</v>
       </c>
@@ -4695,8 +4701,8 @@
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="35"/>
-      <c r="B112" s="51"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="24" t="s">
         <v>159</v>
       </c>
@@ -4708,8 +4714,8 @@
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="35"/>
-      <c r="B113" s="51"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="24" t="s">
         <v>160</v>
       </c>
@@ -4721,8 +4727,8 @@
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="34"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="24" t="s">
         <v>161</v>
       </c>
@@ -4735,49 +4741,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="A68:A114"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A42:A67"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E50:E55"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="E95:E99"/>
     <mergeCell ref="E100:E104"/>
@@ -4794,6 +4757,49 @@
     <mergeCell ref="E68:E76"/>
     <mergeCell ref="E77:E80"/>
     <mergeCell ref="E81:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A42:A67"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A68:A114"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4855,10 +4861,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -4871,8 +4877,8 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="29" t="s">
         <v>219</v>
       </c>
@@ -4883,8 +4889,8 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="29" t="s">
         <v>220</v>
       </c>
@@ -4895,8 +4901,8 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="29" t="s">
         <v>221</v>
       </c>
@@ -4907,8 +4913,8 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="29" t="s">
         <v>222</v>
       </c>
@@ -4919,8 +4925,8 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4933,8 +4939,8 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="29" t="s">
         <v>224</v>
       </c>
@@ -4945,8 +4951,8 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="29" t="s">
         <v>225</v>
       </c>
@@ -4957,8 +4963,8 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="29" t="s">
         <v>226</v>
       </c>
@@ -4969,8 +4975,8 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="29" t="s">
         <v>227</v>
       </c>
@@ -4981,8 +4987,8 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="29" t="s">
         <v>219</v>
       </c>
@@ -4993,8 +4999,8 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="59" t="s">
         <v>165</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -5007,8 +5013,8 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="29" t="s">
         <v>229</v>
       </c>
@@ -5019,8 +5025,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="29" t="s">
         <v>55</v>
       </c>
@@ -5031,8 +5037,8 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="59" t="s">
         <v>230</v>
       </c>
       <c r="C17" s="29" t="s">
@@ -5045,8 +5051,8 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29" t="s">
         <v>231</v>
       </c>
@@ -5057,8 +5063,8 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="29" t="s">
         <v>232</v>
       </c>
@@ -5069,8 +5075,8 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="29" t="s">
         <v>219</v>
       </c>
@@ -5081,8 +5087,8 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="29" t="s">
         <v>233</v>
       </c>
@@ -5093,8 +5099,8 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="29" t="s">
         <v>234</v>
       </c>
@@ -5105,8 +5111,8 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="29" t="s">
         <v>235</v>
       </c>
@@ -5117,8 +5123,8 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="29" t="s">
@@ -5131,8 +5137,8 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="29" t="s">
         <v>237</v>
       </c>
@@ -5143,8 +5149,8 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="29" t="s">
         <v>238</v>
       </c>
@@ -5155,8 +5161,8 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59" t="s">
         <v>167</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -5169,8 +5175,8 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="29" t="s">
         <v>240</v>
       </c>
@@ -5181,8 +5187,8 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="29" t="s">
         <v>238</v>
       </c>
@@ -5193,8 +5199,8 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="61"/>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="59" t="s">
         <v>168</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -5207,8 +5213,8 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="29" t="s">
         <v>242</v>
       </c>
@@ -5219,8 +5225,8 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="61"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="29" t="s">
         <v>243</v>
       </c>
@@ -5231,8 +5237,8 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="59" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -5245,8 +5251,8 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="61"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="29" t="s">
         <v>244</v>
       </c>
@@ -5257,8 +5263,8 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="29" t="s">
         <v>245</v>
       </c>
@@ -5269,8 +5275,8 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="61"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="59" t="s">
         <v>170</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -5283,8 +5289,8 @@
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="29" t="s">
         <v>247</v>
       </c>
@@ -5295,8 +5301,8 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="61"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="29" t="s">
         <v>248</v>
       </c>
@@ -5307,8 +5313,8 @@
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="29" t="s">
@@ -5321,8 +5327,8 @@
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="61"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="29" t="s">
         <v>250</v>
       </c>
@@ -5333,8 +5339,8 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="29" t="s">
         <v>219</v>
       </c>
@@ -5345,8 +5351,8 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="59" t="s">
         <v>251</v>
       </c>
       <c r="C42" s="29" t="s">
@@ -5359,8 +5365,8 @@
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="61"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="29" t="s">
         <v>229</v>
       </c>
@@ -5371,7 +5377,7 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="14" t="s">
         <v>172</v>
       </c>
